--- a/regionseng/4/business sector/by kind of activity_nace rev.2.xlsx
+++ b/regionseng/4/business sector/by kind of activity_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330CA03F-CAF9-4627-B14C-5A155EC0EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-90" yWindow="210" windowWidth="14235" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#_);\(#\);\-"/>
     <numFmt numFmtId="165" formatCode="#.0;\-#.0;\-"/>
@@ -318,6 +319,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,6 +371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -543,7 +578,7 @@
     <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -552,7 +587,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -562,13 +597,13 @@
       <c r="H3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D4" s="12"/>
       <c r="F4" s="12"/>
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2006</v>
@@ -615,8 +650,14 @@
       <c r="P5" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -665,8 +706,14 @@
       <c r="P6" s="4">
         <v>5593.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="4">
+        <v>7484.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10985.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -715,8 +762,14 @@
       <c r="P7" s="5">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="R7" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,8 +818,14 @@
       <c r="P8" s="5">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="R8" s="5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -815,8 +874,14 @@
       <c r="P9" s="5">
         <v>597.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5">
+        <v>841.6</v>
+      </c>
+      <c r="R9" s="5">
+        <v>957.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +930,14 @@
       <c r="P10" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5">
+        <v>91</v>
+      </c>
+      <c r="R10" s="5">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,8 +986,14 @@
       <c r="P11" s="5">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="R11" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,8 +1042,14 @@
       <c r="P12" s="5">
         <v>1085.4000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1476.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1015,8 +1098,14 @@
       <c r="P13" s="5">
         <v>2504.3000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2789.8</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4079.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1065,8 +1154,14 @@
       <c r="P14" s="5">
         <v>553.20000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5">
+        <v>722.8</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1061.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1115,8 +1210,14 @@
       <c r="P15" s="5">
         <v>168.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5">
+        <v>291.5</v>
+      </c>
+      <c r="R15" s="5">
+        <v>408.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1165,8 +1266,14 @@
       <c r="P16" s="5">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R16" s="5">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1215,8 +1322,14 @@
       <c r="P17" s="5">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5">
+        <v>175.7</v>
+      </c>
+      <c r="R17" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1378,14 @@
       <c r="P18" s="5">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5">
+        <v>94.4</v>
+      </c>
+      <c r="R18" s="5">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,8 +1434,14 @@
       <c r="P19" s="5">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,8 +1490,14 @@
       <c r="P20" s="5">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="R20" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1415,8 +1546,14 @@
       <c r="P21" s="5">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>90</v>
+      </c>
+      <c r="R21" s="5">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,8 +1602,14 @@
       <c r="P22" s="5">
         <v>204.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5">
+        <v>1073.8</v>
+      </c>
+      <c r="R22" s="5">
+        <v>2155.3000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1515,11 +1658,17 @@
       <c r="P23" s="5">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="R23" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
@@ -1528,10 +1677,10 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>2006</v>
@@ -1578,8 +1727,14 @@
       <c r="P27" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>22</v>
       </c>
@@ -1628,8 +1783,14 @@
       <c r="P28" s="4">
         <v>3828.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="4">
+        <v>5258.3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>6482.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1678,8 +1839,14 @@
       <c r="P29" s="5">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="R29" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1728,8 +1895,14 @@
       <c r="P30" s="5">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="5">
+        <v>23</v>
+      </c>
+      <c r="R30" s="5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1778,8 +1951,14 @@
       <c r="P31" s="5">
         <v>577.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="5">
+        <v>810.7</v>
+      </c>
+      <c r="R31" s="5">
+        <v>931.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1828,8 +2007,14 @@
       <c r="P32" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="5">
+        <v>91</v>
+      </c>
+      <c r="R32" s="5">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1878,8 +2063,14 @@
       <c r="P33" s="5">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="R33" s="5">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1928,8 +2119,14 @@
       <c r="P34" s="5">
         <v>1314.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="5">
+        <v>1557</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1931.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -1978,8 +2175,14 @@
       <c r="P35" s="5">
         <v>441.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="5">
+        <v>533.1</v>
+      </c>
+      <c r="R35" s="5">
+        <v>726.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -2028,8 +2231,14 @@
       <c r="P36" s="5">
         <v>606.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="5">
+        <v>726.7</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1042.4000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2078,8 +2287,14 @@
       <c r="P37" s="5">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="5">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="R37" s="5">
+        <v>430.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2128,8 +2343,14 @@
       <c r="P38" s="5">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="R38" s="5">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
@@ -2178,8 +2399,14 @@
       <c r="P39" s="5">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="5">
+        <v>176.6</v>
+      </c>
+      <c r="R39" s="5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2228,8 +2455,14 @@
       <c r="P40" s="5">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="5">
+        <v>94.3</v>
+      </c>
+      <c r="R40" s="5">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2278,8 +2511,14 @@
       <c r="P41" s="5">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="R41" s="5">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2328,8 +2567,14 @@
       <c r="P42" s="5">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="R42" s="5">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2378,8 +2623,14 @@
       <c r="P43" s="5">
         <v>129.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="5">
+        <v>207.2</v>
+      </c>
+      <c r="R43" s="5">
+        <v>198.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2428,8 +2679,14 @@
       <c r="P44" s="5">
         <v>170.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="5">
+        <v>641.6</v>
+      </c>
+      <c r="R44" s="5">
+        <v>513.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -2478,8 +2735,14 @@
       <c r="P45" s="5">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="R45" s="5">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>4</v>
       </c>
@@ -2488,11 +2751,11 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
         <v>2006</v>
@@ -2539,8 +2802,14 @@
       <c r="P49" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>22</v>
       </c>
@@ -2589,8 +2858,14 @@
       <c r="P50" s="8">
         <v>68089.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="8">
+        <v>72973</v>
+      </c>
+      <c r="R50" s="8">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -2639,8 +2914,14 @@
       <c r="P51" s="9">
         <v>229</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="9">
+        <v>234</v>
+      </c>
+      <c r="R51" s="9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -2689,8 +2970,14 @@
       <c r="P52" s="9">
         <v>419.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="9">
+        <v>235</v>
+      </c>
+      <c r="R52" s="9">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -2739,8 +3026,14 @@
       <c r="P53" s="9">
         <v>8758.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="9">
+        <v>9931</v>
+      </c>
+      <c r="R53" s="9">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -2789,8 +3082,14 @@
       <c r="P54" s="9">
         <v>189.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="9">
+        <v>184</v>
+      </c>
+      <c r="R54" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2839,8 +3138,14 @@
       <c r="P55" s="9">
         <v>1592</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="9">
+        <v>1699</v>
+      </c>
+      <c r="R55" s="9">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,8 +3194,14 @@
       <c r="P56" s="9">
         <v>10398</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="9">
+        <v>10543</v>
+      </c>
+      <c r="R56" s="9">
+        <v>11015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -2939,8 +3250,14 @@
       <c r="P57" s="9">
         <v>14355.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="9">
+        <v>17121</v>
+      </c>
+      <c r="R57" s="9">
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -2989,8 +3306,14 @@
       <c r="P58" s="9">
         <v>7569.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="9">
+        <v>7841</v>
+      </c>
+      <c r="R58" s="9">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -3039,8 +3362,14 @@
       <c r="P59" s="9">
         <v>5326.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="9">
+        <v>5340</v>
+      </c>
+      <c r="R59" s="9">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -3089,8 +3418,14 @@
       <c r="P60" s="9">
         <v>496</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="9">
+        <v>501</v>
+      </c>
+      <c r="R60" s="9">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
@@ -3139,8 +3474,14 @@
       <c r="P61" s="9">
         <v>1608</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="9">
+        <v>1671</v>
+      </c>
+      <c r="R61" s="9">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -3189,8 +3530,14 @@
       <c r="P62" s="9">
         <v>1840.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="9">
+        <v>2079</v>
+      </c>
+      <c r="R62" s="9">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -3239,8 +3586,14 @@
       <c r="P63" s="9">
         <v>1124</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="9">
+        <v>576</v>
+      </c>
+      <c r="R63" s="9">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -3289,8 +3642,14 @@
       <c r="P64" s="9">
         <v>2004.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="9">
+        <v>2033</v>
+      </c>
+      <c r="R64" s="9">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>19</v>
       </c>
@@ -3339,8 +3698,14 @@
       <c r="P65" s="9">
         <v>6813</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="9">
+        <v>6869</v>
+      </c>
+      <c r="R65" s="9">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -3389,8 +3754,14 @@
       <c r="P66" s="9">
         <v>4484.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="9">
+        <v>5062</v>
+      </c>
+      <c r="R66" s="9">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -3439,8 +3810,14 @@
       <c r="P67" s="10">
         <v>881.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="10">
+        <v>1055</v>
+      </c>
+      <c r="R67" s="9">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3455,19 +3832,19 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2">
         <v>2006</v>
@@ -3514,8 +3891,14 @@
       <c r="P71" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>22</v>
       </c>
@@ -3564,8 +3947,14 @@
       <c r="P72" s="4">
         <v>995.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="4">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="R72" s="4">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -3614,8 +4003,14 @@
       <c r="P73" s="5">
         <v>201.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="5">
+        <v>384.7</v>
+      </c>
+      <c r="R73" s="5">
+        <v>520.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3664,8 +4059,14 @@
       <c r="P74" s="5">
         <v>999</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="5">
+        <v>902.6</v>
+      </c>
+      <c r="R74" s="5">
+        <v>1509.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>23</v>
       </c>
@@ -3714,8 +4115,14 @@
       <c r="P75" s="5">
         <v>744</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="5">
+        <v>816</v>
+      </c>
+      <c r="R75" s="5">
+        <v>1014.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -3764,8 +4171,14 @@
       <c r="P76" s="5">
         <v>3710.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="5">
+        <v>3569.8</v>
+      </c>
+      <c r="R76" s="5">
+        <v>5172.1000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3814,8 +4227,14 @@
       <c r="P77" s="5">
         <v>924.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="5">
+        <v>1035.2</v>
+      </c>
+      <c r="R77" s="5">
+        <v>1121.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3864,8 +4283,14 @@
       <c r="P78" s="5">
         <v>1520</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78" s="5">
+        <v>1647.3</v>
+      </c>
+      <c r="R78" s="5">
+        <v>1631.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -3914,8 +4339,14 @@
       <c r="P79" s="5">
         <v>634.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="5">
+        <v>657.6</v>
+      </c>
+      <c r="R79" s="5">
+        <v>845.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -3964,8 +4395,14 @@
       <c r="P80" s="5">
         <v>1166</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="5">
+        <v>1319.7</v>
+      </c>
+      <c r="R80" s="5">
+        <v>1637.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>13</v>
       </c>
@@ -4014,8 +4451,14 @@
       <c r="P81" s="5">
         <v>790.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="5">
+        <v>831.4</v>
+      </c>
+      <c r="R81" s="5">
+        <v>1085.4000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
@@ -4064,8 +4507,14 @@
       <c r="P82" s="5">
         <v>930.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="5">
+        <v>841.7</v>
+      </c>
+      <c r="R82" s="5">
+        <v>2100.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>15</v>
       </c>
@@ -4114,8 +4563,14 @@
       <c r="P83" s="5">
         <v>506.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="5">
+        <v>961.1</v>
+      </c>
+      <c r="R83" s="5">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -4164,8 +4619,14 @@
       <c r="P84" s="5">
         <v>1391</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="5">
+        <v>1408</v>
+      </c>
+      <c r="R84" s="5">
+        <v>1167.4000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -4214,8 +4675,14 @@
       <c r="P85" s="5">
         <v>805.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="5">
+        <v>692.7</v>
+      </c>
+      <c r="R85" s="5">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -4264,8 +4731,14 @@
       <c r="P86" s="5">
         <v>529.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="5">
+        <v>735.2</v>
+      </c>
+      <c r="R86" s="5">
+        <v>772.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>19</v>
       </c>
@@ -4314,8 +4787,14 @@
       <c r="P87" s="5">
         <v>1012</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="5">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="R87" s="5">
+        <v>1241.4000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4843,14 @@
       <c r="P88" s="5">
         <v>1447.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="5">
+        <v>1493.1</v>
+      </c>
+      <c r="R88" s="5">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -4413,6 +4898,12 @@
       </c>
       <c r="P89" s="5">
         <v>197.2</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>415.2</v>
+      </c>
+      <c r="R89" s="5">
+        <v>833.6</v>
       </c>
     </row>
   </sheetData>
